--- a/result.xlsx
+++ b/result.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="1880" windowWidth="13800" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="without_sentiment" sheetId="1" r:id="rId1"/>
-    <sheet name="with_sentiment" sheetId="4" r:id="rId2"/>
+    <sheet name="without_sentiment_10%holdout" sheetId="6" r:id="rId1"/>
+    <sheet name="with_sentiment_10%holdout" sheetId="7" r:id="rId2"/>
+    <sheet name="without_sentiment_20%holdout" sheetId="1" r:id="rId3"/>
+    <sheet name="with_sentiment_20%holdout" sheetId="4" r:id="rId4"/>
+    <sheet name="Comparison_10%holdout" sheetId="9" r:id="rId5"/>
+    <sheet name="Comparison_20%holdout" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>000573</t>
   </si>
@@ -46,13 +50,91 @@
   </si>
   <si>
     <t>300333</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>0.617021276596 (window = 9)</t>
+  </si>
+  <si>
+    <t>0.595744680851 (window = 8)</t>
+  </si>
+  <si>
+    <t>0.565217391304 (window = 3)</t>
+  </si>
+  <si>
+    <t>0.630434782609 (window = 4)</t>
+  </si>
+  <si>
+    <t>0.488372093023 (window = 12)</t>
+  </si>
+  <si>
+    <t>0.521739130435 (window = 8)</t>
+  </si>
+  <si>
+    <t>0.479166667 (window = 3)</t>
+  </si>
+  <si>
+    <t>0.545454545455 (window = 9)</t>
+  </si>
+  <si>
+    <t>0.511111111111 (window = 13)</t>
+  </si>
+  <si>
+    <t>0.479166666667 (window = 2)</t>
+  </si>
+  <si>
+    <t>0.520833333333 (window = 4)</t>
+  </si>
+  <si>
+    <t>0.574468085 (window = 8)</t>
+  </si>
+  <si>
+    <t>0.652173913 (window = 4)</t>
+  </si>
+  <si>
+    <t>0.545454545 (window = 7)</t>
+  </si>
+  <si>
+    <t>0.523809524 (window = 12)</t>
+  </si>
+  <si>
+    <t>0.545454545 (window = 15)</t>
+  </si>
+  <si>
+    <t>0.608695652 (window = 8)</t>
+  </si>
+  <si>
+    <t>0.565217391 (window = 6)</t>
+  </si>
+  <si>
+    <t>0.652173913043(window = 11)</t>
+  </si>
+  <si>
+    <t>0.565217391 (window = 4)</t>
+  </si>
+  <si>
+    <t>0.619047619 (window = 15)</t>
+  </si>
+  <si>
+    <t>0.590909091 (window = 12)</t>
+  </si>
+  <si>
+    <t>0.608695652 (window = 9)</t>
+  </si>
+  <si>
+    <t>0.695652173913 (window = 7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,15 +148,26 @@
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF303F9F"/>
-      <name val="Courier New"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,19 +187,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,20 +525,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>0.5</v>
+        <v>0.41666666666699997</v>
       </c>
       <c r="C2" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.36363636363599999</v>
+      </c>
       <c r="E2" s="4">
-        <v>0.47826086956500002</v>
+        <v>0.39130434782599999</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5</v>
+        <v>0.41666666666699997</v>
       </c>
       <c r="G2" s="4">
-        <v>0.45833333333300003</v>
+        <v>0.29166666666699997</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -446,20 +548,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>0.45833333333300003</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6">
-        <v>0.69565217391300005</v>
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.63636363636399995</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.47826086956500002</v>
       </c>
       <c r="F3" s="4">
         <v>0.375</v>
       </c>
-      <c r="G3" s="6">
-        <v>0.58333333333299997</v>
+      <c r="G3" s="4">
+        <v>0.54166666666700003</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -467,40 +571,45 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>0.69565217391300005</v>
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.47826086956500002</v>
       </c>
       <c r="F4" s="4">
-        <v>0.34782608695700001</v>
+        <v>0.39130434782599999</v>
       </c>
       <c r="G4" s="4">
-        <v>0.34782608695700001</v>
+        <v>0.52173913043499998</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.5625</v>
+      <c r="B5" s="5">
+        <v>0.65217391304299999</v>
       </c>
       <c r="C5" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.31818181818199998</v>
       </c>
       <c r="E5" s="4">
-        <v>0.65217391304299999</v>
+        <v>0.43478260869599999</v>
       </c>
       <c r="F5" s="4">
-        <v>0.34782608695700001</v>
+        <v>0.39130434782599999</v>
       </c>
       <c r="G5" s="4">
-        <v>0.43478260869599999</v>
+        <v>0.52173913043499998</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -508,20 +617,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>0.52083333333299997</v>
+        <v>0.56521739130399995</v>
       </c>
       <c r="C6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.40909090909099999</v>
+      </c>
       <c r="E6" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.34782608695700001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.34782608695700001</v>
       </c>
       <c r="G6" s="4">
-        <v>0.39130434782599999</v>
+        <v>0.52173913043499998</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -529,20 +640,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>0.46808510638299999</v>
+        <v>0.52173913043499998</v>
       </c>
       <c r="C7" s="4">
-        <v>0.41304347826100002</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.36363636363599999</v>
+      </c>
       <c r="E7" s="4">
-        <v>0.65217391304299999</v>
+        <v>0.43478260869599999</v>
       </c>
       <c r="F7" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.39130434782599999</v>
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.56521739130399995</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -550,17 +663,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>0.48936170212800001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.45652173912999999</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.28571428571399998</v>
+      </c>
       <c r="E8" s="4">
-        <v>0.69565217391300005</v>
+        <v>0.52173913043499998</v>
       </c>
       <c r="F8" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.56521739130399995</v>
       </c>
       <c r="G8" s="4">
         <v>0.43478260869599999</v>
@@ -571,62 +686,68 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>0.59574468085099996</v>
+        <v>0.60869565217400001</v>
       </c>
       <c r="C9" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.38095238095200001</v>
+      </c>
       <c r="E9" s="4">
-        <v>0.69565217391300005</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.56521739130399995</v>
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.60869565217400001</v>
       </c>
       <c r="G9" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.39130434782599999</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>0.61702127659600003</v>
+      <c r="B10" s="4">
+        <v>0.60869565217400001</v>
       </c>
       <c r="C10" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.38095238095200001</v>
+      </c>
       <c r="E10" s="4">
-        <v>0.65217391304299999</v>
+        <v>0.52173913043499998</v>
       </c>
       <c r="F10" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.47826086956500002</v>
       </c>
       <c r="G10" s="4">
-        <v>0.47826086956500002</v>
+        <v>0.39130434782599999</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>0.61702127659600003</v>
+      <c r="B11" s="4">
+        <v>0.60869565217400001</v>
       </c>
       <c r="C11" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.38095238095200001</v>
+      </c>
       <c r="E11" s="4">
-        <v>0.59090909090900001</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="4">
         <v>0.52173913043499998</v>
       </c>
       <c r="G11" s="4">
-        <v>0.43478260869599999</v>
+        <v>0.39130434782599999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -634,20 +755,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>0.54347826086999995</v>
+        <v>0.60869565217400001</v>
       </c>
       <c r="C12" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.428571428571</v>
+      </c>
       <c r="E12" s="4">
-        <v>0.63636363636399995</v>
+        <v>0.45454545454500001</v>
       </c>
       <c r="F12" s="4">
-        <v>0.56521739130399995</v>
+        <v>0.43478260869599999</v>
       </c>
       <c r="G12" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.43478260869599999</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -658,14 +781,16 @@
         <v>0.56521739130399995</v>
       </c>
       <c r="C13" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.52380952381000001</v>
+      </c>
       <c r="E13" s="4">
-        <v>0.68181818181800002</v>
+        <v>0.45454545454500001</v>
       </c>
       <c r="F13" s="4">
-        <v>0.47826086956500002</v>
+        <v>0.39130434782599999</v>
       </c>
       <c r="G13" s="4">
         <v>0.43478260869599999</v>
@@ -676,20 +801,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.54545454545500005</v>
       </c>
       <c r="C14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.52380952381000001</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.45454545454500001</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.59090909090900001</v>
+      <c r="F14" s="4">
+        <v>0.31818181818199998</v>
       </c>
       <c r="G14" s="4">
-        <v>0.45454545454500001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -697,20 +824,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="4">
         <v>0.5</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>0.52380952381000001</v>
+      </c>
       <c r="E15" s="4">
-        <v>0.59090909090900001</v>
+        <v>0.45454545454500001</v>
       </c>
       <c r="F15" s="4">
-        <v>0.54545454545500005</v>
+        <v>0.31818181818199998</v>
       </c>
       <c r="G15" s="4">
-        <v>0.5</v>
+        <v>0.40909090909099999</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -718,20 +847,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="4">
-        <v>0.47727272727300002</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>0.63636363636399995</v>
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.52380952381000001</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.54545454545500005</v>
       </c>
       <c r="F16" s="4">
-        <v>0.45454545454500001</v>
+        <v>0.31818181818199998</v>
       </c>
       <c r="G16" s="4">
-        <v>0.54545454545500005</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -739,21 +870,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
-        <v>0.51111111111100005</v>
+        <v>0.45454545454500001</v>
       </c>
       <c r="C17" s="4">
-        <v>0.43181818181800002</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.52380952381000001</v>
+      </c>
       <c r="E17" s="4">
-        <v>0.63636363636399995</v>
+        <v>0.45454545454500001</v>
       </c>
       <c r="F17" s="4">
-        <v>0.5</v>
+        <v>0.31818181818199998</v>
       </c>
       <c r="G17" s="4">
-        <v>0.45454545454500001</v>
-      </c>
+        <v>0.40909090909099999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,7 +901,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,303 +940,1362 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>0.41666666666699997</v>
+      </c>
       <c r="C2" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-      <c r="D2" s="6"/>
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.40909090909099999</v>
+      </c>
       <c r="E2" s="4">
         <v>0.47826086956500002</v>
       </c>
       <c r="F2" s="4">
-        <v>0.5</v>
+        <v>0.45833333333300003</v>
       </c>
       <c r="G2" s="4">
-        <v>0.45833333333300003</v>
+        <v>0.58333333333299997</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4">
+        <v>0.5</v>
+      </c>
       <c r="C3" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6">
-        <v>0.69565217391300005</v>
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.59090909090900001</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.39130434782599999</v>
       </c>
       <c r="F3" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.58333333333299997</v>
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.41666666666699997</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4">
+        <v>0.52173913043499998</v>
+      </c>
       <c r="C4" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>0.69565217391300005</v>
+        <v>0.217391304348</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.56521739130399995</v>
       </c>
       <c r="F4" s="4">
-        <v>0.34782608695700001</v>
+        <v>0.39130434782599999</v>
       </c>
       <c r="G4" s="4">
-        <v>0.34782608695700001</v>
+        <v>0.47826086956500002</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6">
-        <v>0.63043478260899999</v>
+      <c r="B5" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.36363636363599999</v>
       </c>
       <c r="E5" s="4">
-        <v>0.65217391304299999</v>
+        <v>0.43478260869599999</v>
       </c>
       <c r="F5" s="4">
-        <v>0.34782608695700001</v>
+        <v>0.47826086956500002</v>
       </c>
       <c r="G5" s="4">
-        <v>0.43478260869599999</v>
+        <v>0.56521739130399995</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>0.52173913043499998</v>
+      </c>
       <c r="C6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>0.40909090909099999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45454545454500001</v>
+      </c>
       <c r="E6" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.34782608695700001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.34782608695700001</v>
       </c>
       <c r="G6" s="4">
-        <v>0.39130434782599999</v>
+        <v>0.52173913043499998</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="4">
+        <v>0.56521739130399995</v>
+      </c>
       <c r="C7" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.39130434782599999</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>0.65217391304299999</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.52173913043499998</v>
-      </c>
       <c r="G7" s="4">
-        <v>0.39130434782599999</v>
+        <v>0.52173913043499998</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="4">
+        <v>0.52173913043499998</v>
+      </c>
       <c r="C8" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.47619047618999999</v>
+      </c>
       <c r="E8" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.69565217391300005</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.43478260869599999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4">
+        <v>0.60869565217400001</v>
+      </c>
       <c r="C9" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.47619047618999999</v>
+      </c>
       <c r="E9" s="4">
-        <v>0.69565217391300005</v>
+        <v>0.47826086956500002</v>
       </c>
       <c r="F9" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="G9" s="4">
         <v>0.56521739130399995</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.52173913043499998</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4">
+        <v>0.60869565217400001</v>
+      </c>
       <c r="C10" s="4">
-        <v>0.42222222222200001</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.52380952381000001</v>
+      </c>
       <c r="E10" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="G10" s="4">
         <v>0.65217391304299999</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.47826086956500002</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4">
+        <v>0.60869565217400001</v>
+      </c>
       <c r="C11" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.52380952381000001</v>
+      </c>
       <c r="E11" s="4">
-        <v>0.59090909090900001</v>
+        <v>0.45454545454500001</v>
       </c>
       <c r="F11" s="4">
         <v>0.52173913043499998</v>
       </c>
       <c r="G11" s="4">
-        <v>0.43478260869599999</v>
+        <v>0.69565217391300005</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5">
+        <v>0.65217391304299999</v>
+      </c>
       <c r="C12" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.52380952381000001</v>
+      </c>
       <c r="E12" s="4">
-        <v>0.63636363636399995</v>
+        <v>0.54545454545500005</v>
       </c>
       <c r="F12" s="4">
-        <v>0.56521739130399995</v>
+        <v>0.52173913043499998</v>
       </c>
       <c r="G12" s="4">
-        <v>0.52173913043499998</v>
+        <v>0.69565217391300005</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4">
+        <v>0.56521739130399995</v>
+      </c>
       <c r="C13" s="4">
-        <v>0.48888888888900001</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>0.68181818181800002</v>
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.59090909090900001</v>
       </c>
       <c r="F13" s="4">
-        <v>0.47826086956500002</v>
+        <v>0.56521739130399995</v>
       </c>
       <c r="G13" s="4">
-        <v>0.43478260869599999</v>
+        <v>0.60869565217400001</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4">
+        <v>0.54545454545500005</v>
+      </c>
       <c r="C14" s="4">
-        <v>0.40909090909099999</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.57142857142900005</v>
+      </c>
       <c r="E14" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.59090909090900001</v>
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.5</v>
       </c>
       <c r="G14" s="4">
-        <v>0.45454545454500001</v>
+        <v>0.63636363636399995</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
       <c r="C15" s="4">
-        <v>0.47727272727300002</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.57142857142900005</v>
+      </c>
       <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.59090909090900001</v>
       </c>
-      <c r="F15" s="4">
-        <v>0.54545454545500005</v>
-      </c>
       <c r="G15" s="4">
-        <v>0.5</v>
+        <v>0.63636363636399995</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="4">
+        <v>0.5</v>
+      </c>
       <c r="C16" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.61904761904799999</v>
+      </c>
       <c r="E16" s="4">
-        <v>0.63636363636399995</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="4">
-        <v>0.45454545454500001</v>
+        <v>0.5</v>
       </c>
       <c r="G16" s="4">
-        <v>0.54545454545500005</v>
+        <v>0.59090909090900001</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.39583333333300003</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.35416666666699997</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.54166666666700003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.37777777777799998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.36170212765999998</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.47916666666699997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.47916666666699997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.52083333333299997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.52083333333299997</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.40909090909099999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.44680851063799998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.59574468085099996</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.425531914894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.61702127659600003</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.38636363636400001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.61702127659600003</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.37209302325600002</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.54347826086999995</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.44186046511600002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.30434782608700001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.488372093023</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.30434782608700001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.46511627907000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.32608695652199998</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.39130434782599999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.488372093023</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.32608695652199998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.36956521739100001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.47727272727300002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.32608695652199998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.45238095238100001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.35555555555599999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.41666666666699997</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.58333333333299997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.47916666666699997</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.33333333333300003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.54166666666700003</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.47916666666699997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.52083333333299997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.63043478260899999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.52083333333299997</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.52272727272700004</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.44680851063799998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.41666666666699997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.55319148936200002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.39130434782599999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.55319148936200002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.52272727272700004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.51063829787199999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.55319148936200002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.59574468085099996</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.574468085106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.51063829787199999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.574468085106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.59574468085099996</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.46511627907000003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.55319148936200002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.58695652173900004</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.488372093023</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.34782608695700001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.48888888888900001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.53488372093000003</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.36956521739100001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.54347826086999995</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.40909090909099999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.488372093023</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.32608695652199998</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.54347826086999995</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.47727272727300002</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.46511627907000003</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.48888888888900001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.52380952381000001</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.30434782608700001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.53333333333300004</v>
+      </c>
       <c r="C17" s="4">
         <v>0.47727272727300002</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>0.47619047618999999</v>
+      </c>
       <c r="E17" s="4">
-        <v>0.63636363636399995</v>
+        <v>0.51111111111100005</v>
       </c>
       <c r="F17" s="4">
-        <v>0.5</v>
+        <v>0.35555555555599999</v>
       </c>
       <c r="G17" s="4">
-        <v>0.45454545454500001</v>
+        <v>0.48888888888900001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="7" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="without_sentiment_10%holdout" sheetId="6" r:id="rId1"/>
     <sheet name="with_sentiment_10%holdout" sheetId="7" r:id="rId2"/>
-    <sheet name="without_sentiment_20%holdout" sheetId="1" r:id="rId3"/>
-    <sheet name="with_sentiment_20%holdout" sheetId="4" r:id="rId4"/>
-    <sheet name="Comparison_10%holdout" sheetId="9" r:id="rId5"/>
-    <sheet name="Comparison_20%holdout" sheetId="5" r:id="rId6"/>
+    <sheet name="with_sentiment_10%_new_norm" sheetId="11" r:id="rId3"/>
+    <sheet name="without_sentiment_20%holdout" sheetId="1" r:id="rId4"/>
+    <sheet name="with_sentiment_20%holdout" sheetId="4" r:id="rId5"/>
+    <sheet name="with_sentiment_20%_new_norm" sheetId="12" r:id="rId6"/>
+    <sheet name="Comparison_10%holdout" sheetId="9" r:id="rId7"/>
+    <sheet name="Comparison_20%holdout" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>000573</t>
   </si>
@@ -61,13 +63,7 @@
     <t>0.617021276596 (window = 9)</t>
   </si>
   <si>
-    <t>0.595744680851 (window = 8)</t>
-  </si>
-  <si>
     <t>0.565217391304 (window = 3)</t>
-  </si>
-  <si>
-    <t>0.630434782609 (window = 4)</t>
   </si>
   <si>
     <t>0.488372093023 (window = 12)</t>
@@ -79,19 +75,7 @@
     <t>0.479166667 (window = 3)</t>
   </si>
   <si>
-    <t>0.545454545455 (window = 9)</t>
-  </si>
-  <si>
-    <t>0.511111111111 (window = 13)</t>
-  </si>
-  <si>
-    <t>0.479166666667 (window = 2)</t>
-  </si>
-  <si>
     <t>0.520833333333 (window = 4)</t>
-  </si>
-  <si>
-    <t>0.574468085 (window = 8)</t>
   </si>
   <si>
     <t>0.652173913 (window = 4)</t>
@@ -115,19 +99,34 @@
     <t>0.652173913043(window = 11)</t>
   </si>
   <si>
-    <t>0.565217391 (window = 4)</t>
-  </si>
-  <si>
     <t>0.619047619 (window = 15)</t>
   </si>
   <si>
-    <t>0.590909091 (window = 12)</t>
+    <t>0.652173913043 (window = 4)</t>
   </si>
   <si>
-    <t>0.608695652 (window = 9)</t>
+    <t>0.608695652174 (window = 10)</t>
   </si>
   <si>
-    <t>0.695652173913 (window = 7)</t>
+    <t>0.739130435 (window = 7)</t>
+  </si>
+  <si>
+    <t>0.617021277 (window = 9)</t>
+  </si>
+  <si>
+    <t>0.521739130435 (window = 4)</t>
+  </si>
+  <si>
+    <t>0.545454545455 (window = 5)</t>
+  </si>
+  <si>
+    <t>0.52173913 (window = 9)</t>
+  </si>
+  <si>
+    <t>0.468085106383 (window = 9)</t>
+  </si>
+  <si>
+    <t>0.574468085 (window = 9)</t>
   </si>
 </sst>
 </file>
@@ -901,7 +900,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1310,6 +1309,422 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.41666666666699997</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.40909090909099999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.58333333333299997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.39130434782599999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.41666666666699997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.30434782608700001</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.65217391304299999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.31818181818199998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.39130434782599999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.36363636363599999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.39130434782599999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.36363636363599999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.52380952381000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.739130434783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.60869565217400001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.60869565217400001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.65217391304299999</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.65217391304299999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.65217391304299999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.52380952381000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.59090909090900001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.40909090909099999</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.63636363636399995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.428571428571</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.61904761904799999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.59090909090900001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.59090909090900001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.428571428571</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.57142857142900005</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.31818181818199998</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.63636363636399995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="F18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -1722,7 +2137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2135,12 +2550,455 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.41666666666699997</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.58333333333299997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.47916666666699997</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.44680851063799998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.39583333333300003</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.35416666666699997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.52083333333299997</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.36170212765999998</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.37777777777799998</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.54166666666700003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.47916666666699997</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.54545454545500005</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.44680851063799998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.41666666666699997</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.54166666666700003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.55319148936200002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.53191489361699995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.52272727272700004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.55319148936200002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.574468085106</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.47727272727300002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.44680851063799998</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.53191489361699995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.61702127659600003</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.52272727272700004</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.46808510638299999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.574468085106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.59574468085099996</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.53488372093000003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.55319148936200002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.37777777777799998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.511627906977</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.34782608695700001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.488372093023</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.36956521739100001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.54347826086999995</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.53488372093000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.48888888888900001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.36956521739100001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.46511627907000003</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.48888888888900001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.39130434782599999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.40909090909099999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.28260869565199997</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.38636363636400001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.288888888889</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2173,22 +3031,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -2196,22 +3054,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2219,12 +3077,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2260,19 +3118,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -2280,22 +3138,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrdoggie/Desktop/Project/Columbia-COMS4995-StockPrediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Columbia-COMS4995-StockPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19140" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="without_sentiment_10%holdout" sheetId="6" r:id="rId1"/>
-    <sheet name="with_sentiment_10%holdout" sheetId="7" r:id="rId2"/>
-    <sheet name="with_sentiment_10%_new_norm" sheetId="11" r:id="rId3"/>
-    <sheet name="without_sentiment_20%holdout" sheetId="1" r:id="rId4"/>
-    <sheet name="with_sentiment_20%holdout" sheetId="4" r:id="rId5"/>
-    <sheet name="with_sentiment_20%_new_norm" sheetId="12" r:id="rId6"/>
-    <sheet name="Comparison_10%holdout" sheetId="9" r:id="rId7"/>
-    <sheet name="Comparison_20%holdout" sheetId="5" r:id="rId8"/>
+    <sheet name="with_sentiment_10%holdout" sheetId="11" r:id="rId2"/>
+    <sheet name="without_sentiment_20%holdout" sheetId="1" r:id="rId3"/>
+    <sheet name="with_sentiment_20%holdout" sheetId="12" r:id="rId4"/>
+    <sheet name="Comparison_10%holdout" sheetId="9" r:id="rId5"/>
+    <sheet name="Comparison_20%holdout" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>000573</t>
   </si>
@@ -132,12 +130,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -145,18 +143,20 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,8 +164,15 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -487,18 +497,18 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -519,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -542,7 +552,7 @@
         <v>0.29166666666699997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -565,7 +575,7 @@
         <v>0.54166666666700003</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -588,7 +598,7 @@
         <v>0.52173913043499998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -611,7 +621,7 @@
         <v>0.52173913043499998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -634,7 +644,7 @@
         <v>0.52173913043499998</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -657,7 +667,7 @@
         <v>0.56521739130399995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -680,7 +690,7 @@
         <v>0.43478260869599999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -703,7 +713,7 @@
         <v>0.39130434782599999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -726,7 +736,7 @@
         <v>0.39130434782599999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -749,7 +759,7 @@
         <v>0.39130434782599999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -772,7 +782,7 @@
         <v>0.43478260869599999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -795,7 +805,7 @@
         <v>0.43478260869599999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -818,7 +828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -841,7 +851,7 @@
         <v>0.40909090909099999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="19.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -864,7 +874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.75">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -887,428 +897,16 @@
         <v>0.40909090909099999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.75">
       <c r="E18" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.41666666666699997</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.40909090909099999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.58333333333299997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.59090909090900001</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.39130434782599999</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.41666666666699997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.217391304348</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.39130434782599999</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.60869565217400001</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.36363636363599999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.56521739130399995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.40909090909099999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.34782608695700001</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.34782608695700001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.39130434782599999</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.47619047618999999</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.69565217391300005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.60869565217400001</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.47619047618999999</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.56521739130399995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.60869565217400001</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.52380952381000001</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.60869565217400001</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.65217391304299999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.60869565217400001</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.52380952381000001</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.69565217391300005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.65217391304299999</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.52380952381000001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.69565217391300005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.57142857142900005</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.59090909090900001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.60869565217400001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.57142857142900005</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.63636363636399995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.57142857142900005</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.59090909090900001</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.63636363636399995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.47619047618999999</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.61904761904799999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.59090909090900001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.47619047618999999</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.57142857142900005</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1316,18 +914,18 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1348,7 +946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1371,7 +969,7 @@
         <v>0.58333333333299997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1394,7 +992,7 @@
         <v>0.41666666666699997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1417,7 +1015,7 @@
         <v>0.52173913043499998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1440,7 +1038,7 @@
         <v>0.56521739130399995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1463,7 +1061,7 @@
         <v>0.56521739130399995</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1486,7 +1084,7 @@
         <v>0.56521739130399995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1509,7 +1107,7 @@
         <v>0.739130434783</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1532,7 +1130,7 @@
         <v>0.60869565217400001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="18.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1555,7 +1153,7 @@
         <v>0.60869565217400001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1578,7 +1176,7 @@
         <v>0.60869565217400001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="19.5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1601,7 +1199,7 @@
         <v>0.65217391304299999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1624,7 +1222,7 @@
         <v>0.65217391304299999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1647,7 +1245,7 @@
         <v>0.54545454545500005</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1670,7 +1268,7 @@
         <v>0.63636363636399995</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="19.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1693,7 +1291,7 @@
         <v>0.59090909090900001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.75">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1716,841 +1314,430 @@
         <v>0.63636363636399995</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.75">
       <c r="F18" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.39583333333300003</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.35416666666699997</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.54166666666700003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.37777777777799998</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.36170212765999998</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.47916666666699997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.47916666666699997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.42222222222200001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.52083333333299997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.52083333333299997</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.425531914894</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.45833333333300003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18.75">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.46808510638299999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.40909090909099999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.48936170212800001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.44680851063799998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.59574468085099996</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.425531914894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.61702127659600003</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.38636363636400001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.61702127659600003</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.37209302325600002</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.40425531914899998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.38297872340400002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.54347826086999995</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.444444444444</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.44186046511600002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.30434782608700001</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.47826086956500002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.56521739130399995</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.488372093023</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.45652173912999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.30434782608700001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.43478260869599999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.45454545454500001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.46511627907000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.32608695652199998</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.39130434782599999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.488372093023</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.32608695652199998</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.36956521739100001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.52173913043499998</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.47727272727300002</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.47619047618999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.32608695652199998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.41304347826100002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.51111111111100005</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.43181818181800002</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.45238095238100001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.35555555555599999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.46666666666700002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.42222222222200001</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.39583333333300003</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.35416666666699997</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.54166666666700003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.37777777777799998</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.36170212765999998</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.47916666666699997</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.47916666666699997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.5625</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.42222222222200001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.52083333333299997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.52083333333299997</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.46808510638299999</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.41304347826100002</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.43181818181800002</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.46808510638299999</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.40425531914899998</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.46808510638299999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.48936170212800001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.45652173912999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.40909090909099999</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.48936170212800001</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.44680851063799998</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.40425531914899998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.59574468085099996</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.43181818181800002</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.40425531914899998</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.425531914894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.61702127659600003</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.38636363636400001</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.61702127659600003</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.37209302325600002</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.45652173912999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.40425531914899998</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.54347826086999995</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.44186046511600002</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.30434782608700001</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.56521739130399995</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.488372093023</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.45652173912999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.30434782608700001</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.45454545454500001</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.46511627907000003</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.51111111111100005</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.32608695652199998</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.39130434782599999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.488372093023</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.51111111111100005</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.32608695652199998</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.36956521739100001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.47727272727300002</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.47619047618999999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.32608695652199998</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.41304347826100002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.51111111111100005</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.43181818181800002</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.45238095238100001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.35555555555599999</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.41666666666699997</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.58333333333299997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.45833333333300003</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.47916666666699997</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.33333333333300003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.54166666666700003</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.38297872340400002</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.47916666666699997</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.52083333333299997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.5625</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.63043478260899999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.46808510638299999</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.52083333333299997</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.52272727272700004</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.44680851063799998</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.41666666666699997</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.55319148936200002</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.39130434782599999</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.40425531914899998</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.55319148936200002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.48936170212800001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.52272727272700004</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.51063829787199999</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.40425531914899998</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.55319148936200002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.59574468085099996</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.43181818181800002</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.425531914894</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.574468085106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.51063829787199999</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.42222222222200001</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.46808510638299999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.574468085106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.59574468085099996</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.46511627907000003</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.45652173912999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.40425531914899998</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.55319148936200002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.58695652173900004</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.444444444444</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.488372093023</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.45652173912999999</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.34782608695700001</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.48888888888900001</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.53488372093000003</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.43478260869599999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.36956521739100001</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.54347826086999995</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.40909090909099999</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.488372093023</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.51111111111100005</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.32608695652199998</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.52173913043499998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.54347826086999995</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.47727272727300002</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.46511627907000003</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.48888888888900001</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.41304347826100002</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.54545454545500005</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.52380952381000001</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.46666666666700002</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.30434782608700001</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.47826086956500002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.53333333333300004</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.47727272727300002</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.47619047618999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.51111111111100005</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.35555555555599999</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.48888888888900001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
@@ -2558,18 +1745,18 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2590,7 +1777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2613,7 +1800,7 @@
         <v>0.58333333333299997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2636,7 +1823,7 @@
         <v>0.35416666666699997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2659,7 +1846,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2682,7 +1869,7 @@
         <v>0.54166666666700003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2705,7 +1892,7 @@
         <v>0.54166666666700003</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2728,7 +1915,7 @@
         <v>0.53191489361699995</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2751,7 +1938,7 @@
         <v>0.55319148936200002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="18.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2774,7 +1961,7 @@
         <v>0.53191489361699995</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2797,7 +1984,7 @@
         <v>0.574468085106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="18.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2820,7 +2007,7 @@
         <v>0.55319148936200002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="18.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2843,7 +2030,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="18.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2866,7 +2053,7 @@
         <v>0.52173913043499998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="18.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2889,7 +2076,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2912,7 +2099,7 @@
         <v>0.45652173912999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="18.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2935,7 +2122,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18.75">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2958,55 +2145,56 @@
         <v>0.42222222222200001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18.75">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18.75">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18.75">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18.75">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18.75">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3049,7 +2237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3073,24 +2261,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3133,7 +2322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3157,6 +2346,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>